--- a/task/pavlovia_/delay_short.xlsx
+++ b/task/pavlovia_/delay_short.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\outreach_wm\task\pavlovia_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA673B9-159E-4FBE-A00F-F2C9DC8DD9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34F1EB9-6DAF-48D7-9E2A-477110CFC128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F538CB62-4FC4-451F-928A-7C8D061C0452}"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="14400" windowHeight="7440" xr2:uid="{F538CB62-4FC4-451F-928A-7C8D061C0452}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/task/pavlovia_/delay_short.xlsx
+++ b/task/pavlovia_/delay_short.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\outreach_wm\task\pavlovia_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34F1EB9-6DAF-48D7-9E2A-477110CFC128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D614C3-AE41-4D4A-858D-8036DCB613C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="14400" windowHeight="7440" xr2:uid="{F538CB62-4FC4-451F-928A-7C8D061C0452}"/>
+    <workbookView xWindow="5775" yWindow="2955" windowWidth="14400" windowHeight="7440" xr2:uid="{F538CB62-4FC4-451F-928A-7C8D061C0452}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>[1,1,1]</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Cueresp</t>
+  </si>
+  <si>
+    <t>[-1,-1,1]</t>
   </si>
 </sst>
 </file>
@@ -456,13 +459,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -491,9 +494,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -520,7 +523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -549,7 +552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
